--- a/ArmazCape/Rev B4/ArmazCape -Rev B4 - MDP/ArmazCape - Rev B4 - BOM.xlsx
+++ b/ArmazCape/Rev B4/ArmazCape -Rev B4 - MDP/ArmazCape - Rev B4 - BOM.xlsx
@@ -34,14 +34,14 @@
   <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - ABK-ECS - Rev A2" description="Connexion à la requête « ABK-ECS - Rev A2 » dans le classeur." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=ABK-ECS - Rev A2;Extended Properties=&quot;&quot;" command="SELECT * FROM [ABK-ECS - Rev A2]"/>
   </connection>
-  <connection id="2" xr16:uid="{DDD7738F-3B99-40AE-A51F-B709F7648270}" keepAlive="1" name="Requête - ArmazCape - Rev B4 - BOM" description="Connexion à la requête « ArmazCape - Rev B4 - BOM » dans le classeur." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Requête - ArmazCape - Rev B4 - BOM" description="Connexion à la requête « ArmazCape - Rev B4 - BOM » dans le classeur." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=ArmazCape - Rev B4 - BOM;Extended Properties=&quot;&quot;" command="SELECT * FROM [ArmazCape - Rev B4 - BOM]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="406">
   <si>
     <t>Qty</t>
   </si>
@@ -1232,6 +1232,33 @@
   </si>
   <si>
     <t>TO ODER</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>MCWR06X2200FTL</t>
+  </si>
+  <si>
+    <t>12105C475KAT2A</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>GRM32ER61C476KE15L</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -1301,69 +1328,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1459,6 +1426,76 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1476,7 +1513,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="2" xr16:uid="{63417597-C2A6-422C-9E9C-9384504A4D9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="18">
     <queryTableFields count="17">
       <queryTableField id="1" name="Qty" tableColumnId="1"/>
@@ -1502,20 +1539,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:H56" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:H56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:I56" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:I56" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:G49">
     <sortCondition ref="F1:F49"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Qty" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Designator" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Value" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Package" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" Manufacteur" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Reference Manufacteur" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mounting Tecghnologie" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BFEBF7C1-DA54-4CD0-9054-290D1FFFD20F}" name="TO ODER" dataDxfId="1"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Qty" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Designator" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Value" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Package" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" Manufacteur" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Reference Manufacteur" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mounting Tecghnologie" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{BFEBF7C1-DA54-4CD0-9054-290D1FFFD20F}" name="TO ODER" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{48A3D751-010D-4266-8D61-6EBFA94560A3}" name="ORDER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1526,22 +1570,22 @@
   <autoFilter ref="A1:Q63" xr:uid="{F842DFB9-0CE2-483A-85FB-E1F08CCA6194}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{AE09A094-2E8F-4938-AAF0-44B4596EDB9A}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{70EC9BCD-AFF6-49B4-A86A-197B9964DFD2}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{0490FFE5-9066-49DD-B869-38EF707A835A}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{745DAD1C-1926-4170-8BD0-9AE85E52B047}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{9CFE4246-F4E0-46E1-B93A-B5A3071ADB42}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{D2E776EC-50E2-431D-9ACC-78B802415D40}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{5DA426B5-464C-467A-A372-9FA6D2EDF701}" uniqueName="7" name="MC" queryTableFieldId="7" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{3A98CE3D-1F1B-4D86-9227-82A17CF65DB7}" uniqueName="8" name="MF" queryTableFieldId="8" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{8DCDAC77-EBDD-4F22-8033-BC532774DEA9}" uniqueName="9" name="MP" queryTableFieldId="9" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{83A8B7F4-5D38-4611-99AA-069D5C5E205F}" uniqueName="10" name="MPN" queryTableFieldId="10" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{7D3FF5FB-7C0B-47F3-8F0F-8972E8F1590A}" uniqueName="11" name="OC_FARNELL" queryTableFieldId="11" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{E15819F6-76BF-4B94-A7AD-9ACF33941781}" uniqueName="12" name="OC_NEWARK" queryTableFieldId="12" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{C86CECAC-77B9-4B37-94DE-5603B11E3F9C}" uniqueName="13" name="PACKAGE.1" queryTableFieldId="13" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{A7314788-729A-4F7C-94F1-696ACBE6D55B}" uniqueName="14" name="SUPPLIER" queryTableFieldId="14" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{24A642BE-9A77-44D9-8413-CBCF07A87954}" uniqueName="15" name="TP_SIGNAL_NAME" queryTableFieldId="15" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{1509B521-0D78-4316-852B-EAB8B6B17638}" uniqueName="16" name="VALUE.1" queryTableFieldId="16" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{44C59F59-8FB1-47D5-B4E7-724FB494D773}" uniqueName="17" name="Column1" queryTableFieldId="17" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{70EC9BCD-AFF6-49B4-A86A-197B9964DFD2}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{0490FFE5-9066-49DD-B869-38EF707A835A}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{745DAD1C-1926-4170-8BD0-9AE85E52B047}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{9CFE4246-F4E0-46E1-B93A-B5A3071ADB42}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{D2E776EC-50E2-431D-9ACC-78B802415D40}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{5DA426B5-464C-467A-A372-9FA6D2EDF701}" uniqueName="7" name="MC" queryTableFieldId="7" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{3A98CE3D-1F1B-4D86-9227-82A17CF65DB7}" uniqueName="8" name="MF" queryTableFieldId="8" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{8DCDAC77-EBDD-4F22-8033-BC532774DEA9}" uniqueName="9" name="MP" queryTableFieldId="9" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{83A8B7F4-5D38-4611-99AA-069D5C5E205F}" uniqueName="10" name="MPN" queryTableFieldId="10" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{7D3FF5FB-7C0B-47F3-8F0F-8972E8F1590A}" uniqueName="11" name="OC_FARNELL" queryTableFieldId="11" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{E15819F6-76BF-4B94-A7AD-9ACF33941781}" uniqueName="12" name="OC_NEWARK" queryTableFieldId="12" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{C86CECAC-77B9-4B37-94DE-5603B11E3F9C}" uniqueName="13" name="PACKAGE.1" queryTableFieldId="13" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{A7314788-729A-4F7C-94F1-696ACBE6D55B}" uniqueName="14" name="SUPPLIER" queryTableFieldId="14" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{24A642BE-9A77-44D9-8413-CBCF07A87954}" uniqueName="15" name="TP_SIGNAL_NAME" queryTableFieldId="15" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{1509B521-0D78-4316-852B-EAB8B6B17638}" uniqueName="16" name="VALUE.1" queryTableFieldId="16" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{44C59F59-8FB1-47D5-B4E7-724FB494D773}" uniqueName="17" name="Column1" queryTableFieldId="17" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1555,12 +1599,12 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B20C6A85-2B84-4E86-BC0F-356AB66372A9}" name="Qty"/>
-    <tableColumn id="2" xr3:uid="{06726855-2C16-458F-9E6D-9DFB00EFB535}" name="Value" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E0FAD16E-12AC-4752-BD56-DF97EB4882F4}" name="Package" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{935A2492-D977-44D4-9F8A-1D8A214EDE6F}" name="Parts" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{6E29D7FF-02E1-4956-BCF4-9C4DB2952445}" name="Description" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{2E28C2BA-7E76-4947-8D49-1587730E2FE8}" name="MF" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{369BC5BE-8036-407B-9780-4E1A0D67A6BE}" name="MPN" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{06726855-2C16-458F-9E6D-9DFB00EFB535}" name="Value" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E0FAD16E-12AC-4752-BD56-DF97EB4882F4}" name="Package" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{935A2492-D977-44D4-9F8A-1D8A214EDE6F}" name="Parts" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6E29D7FF-02E1-4956-BCF4-9C4DB2952445}" name="Description" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{2E28C2BA-7E76-4947-8D49-1587730E2FE8}" name="MF" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{369BC5BE-8036-407B-9780-4E1A0D67A6BE}" name="MPN" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1863,13 +1907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1967,9 @@
       <c r="H1" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
@@ -1949,12 +1995,16 @@
       <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>405</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1976,9 +2026,12 @@
       <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2000,7 +2053,10 @@
       <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2024,9 +2080,14 @@
       <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2048,9 +2109,12 @@
       <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2072,9 +2136,12 @@
       <c r="G7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2096,7 +2163,10 @@
       <c r="G8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2115,12 +2185,17 @@
         <v>46</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>220</v>
+        <v>404</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2136,17 +2211,22 @@
         <v>209</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>211</v>
+        <v>402</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2168,9 +2248,12 @@
       <c r="G11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2192,9 +2275,12 @@
       <c r="G12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -2216,9 +2302,12 @@
       <c r="G13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2240,7 +2329,10 @@
       <c r="G14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2264,7 +2356,12 @@
       <c r="G15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2286,11 +2383,16 @@
         <v>38</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2312,9 +2414,12 @@
       <c r="G17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2336,9 +2441,12 @@
       <c r="G18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2360,9 +2468,12 @@
       <c r="G19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2370,7 +2481,7 @@
         <v>264</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>390</v>
+        <v>266</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>263</v>
@@ -2384,9 +2495,14 @@
       <c r="G20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2408,9 +2524,12 @@
       <c r="G21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2432,9 +2551,12 @@
       <c r="G22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2456,9 +2578,14 @@
       <c r="G23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2480,9 +2607,14 @@
       <c r="G24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -2504,9 +2636,14 @@
       <c r="G25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2528,9 +2665,14 @@
       <c r="G26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2552,9 +2694,12 @@
       <c r="G27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2576,9 +2721,12 @@
       <c r="G28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2600,9 +2748,12 @@
       <c r="G29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2624,9 +2775,14 @@
       <c r="G30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2648,9 +2804,14 @@
       <c r="G31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2672,9 +2833,12 @@
       <c r="G32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16</v>
       </c>
@@ -2696,9 +2860,12 @@
       <c r="G33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -2720,9 +2887,14 @@
       <c r="G34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2744,9 +2916,12 @@
       <c r="G35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2768,9 +2943,12 @@
       <c r="G36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2792,9 +2970,12 @@
       <c r="G37" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2816,9 +2997,12 @@
       <c r="G38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2840,9 +3024,12 @@
       <c r="G39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2864,9 +3051,12 @@
       <c r="G40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -2888,9 +3078,12 @@
       <c r="G41" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2912,9 +3105,12 @@
       <c r="G42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -2936,9 +3132,12 @@
       <c r="G43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2960,9 +3159,14 @@
       <c r="G44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2979,14 +3183,19 @@
         <v>21</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>123</v>
+        <v>401</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3008,9 +3217,12 @@
       <c r="G46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -3032,9 +3244,12 @@
       <c r="G47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3056,9 +3271,14 @@
       <c r="G48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3080,9 +3300,12 @@
       <c r="G49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3104,9 +3327,14 @@
       <c r="G50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3128,9 +3356,14 @@
       <c r="G51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3147,14 +3380,19 @@
         <v>288</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3176,9 +3414,14 @@
       <c r="G53" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3200,9 +3443,14 @@
       <c r="G54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3224,9 +3472,14 @@
       <c r="G55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3248,7 +3501,12 @@
       <c r="G56" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>405</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ArmazCape/Rev B4/ArmazCape -Rev B4 - MDP/ArmazCape - Rev B4 - BOM.xlsx
+++ b/ArmazCape/Rev B4/ArmazCape -Rev B4 - MDP/ArmazCape - Rev B4 - BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="1" hidden="1">Feuil2!$A$1:$Q$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tableau1[#All]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$1:$56</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1330,14 +1330,7 @@
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1403,7 +1396,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1540,13 +1540,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:I56" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:I56" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:G49">
     <sortCondition ref="F1:F49"/>
   </sortState>
@@ -1559,7 +1553,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Reference Manufacteur" dataDxfId="25"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mounting Tecghnologie" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{BFEBF7C1-DA54-4CD0-9054-290D1FFFD20F}" name="TO ODER" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{48A3D751-010D-4266-8D61-6EBFA94560A3}" name="ORDER" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{48A3D751-010D-4266-8D61-6EBFA94560A3}" name="ORDER" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1570,22 +1564,22 @@
   <autoFilter ref="A1:Q63" xr:uid="{F842DFB9-0CE2-483A-85FB-E1F08CCA6194}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{AE09A094-2E8F-4938-AAF0-44B4596EDB9A}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{70EC9BCD-AFF6-49B4-A86A-197B9964DFD2}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{0490FFE5-9066-49DD-B869-38EF707A835A}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{745DAD1C-1926-4170-8BD0-9AE85E52B047}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{9CFE4246-F4E0-46E1-B93A-B5A3071ADB42}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{D2E776EC-50E2-431D-9ACC-78B802415D40}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{5DA426B5-464C-467A-A372-9FA6D2EDF701}" uniqueName="7" name="MC" queryTableFieldId="7" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{3A98CE3D-1F1B-4D86-9227-82A17CF65DB7}" uniqueName="8" name="MF" queryTableFieldId="8" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{8DCDAC77-EBDD-4F22-8033-BC532774DEA9}" uniqueName="9" name="MP" queryTableFieldId="9" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{83A8B7F4-5D38-4611-99AA-069D5C5E205F}" uniqueName="10" name="MPN" queryTableFieldId="10" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{7D3FF5FB-7C0B-47F3-8F0F-8972E8F1590A}" uniqueName="11" name="OC_FARNELL" queryTableFieldId="11" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{E15819F6-76BF-4B94-A7AD-9ACF33941781}" uniqueName="12" name="OC_NEWARK" queryTableFieldId="12" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{C86CECAC-77B9-4B37-94DE-5603B11E3F9C}" uniqueName="13" name="PACKAGE.1" queryTableFieldId="13" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{A7314788-729A-4F7C-94F1-696ACBE6D55B}" uniqueName="14" name="SUPPLIER" queryTableFieldId="14" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{24A642BE-9A77-44D9-8413-CBCF07A87954}" uniqueName="15" name="TP_SIGNAL_NAME" queryTableFieldId="15" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{1509B521-0D78-4316-852B-EAB8B6B17638}" uniqueName="16" name="VALUE.1" queryTableFieldId="16" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{44C59F59-8FB1-47D5-B4E7-724FB494D773}" uniqueName="17" name="Column1" queryTableFieldId="17" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{70EC9BCD-AFF6-49B4-A86A-197B9964DFD2}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{0490FFE5-9066-49DD-B869-38EF707A835A}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{745DAD1C-1926-4170-8BD0-9AE85E52B047}" uniqueName="4" name="Package" queryTableFieldId="4" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{9CFE4246-F4E0-46E1-B93A-B5A3071ADB42}" uniqueName="5" name="Parts" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{D2E776EC-50E2-431D-9ACC-78B802415D40}" uniqueName="6" name="Description" queryTableFieldId="6" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{5DA426B5-464C-467A-A372-9FA6D2EDF701}" uniqueName="7" name="MC" queryTableFieldId="7" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{3A98CE3D-1F1B-4D86-9227-82A17CF65DB7}" uniqueName="8" name="MF" queryTableFieldId="8" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{8DCDAC77-EBDD-4F22-8033-BC532774DEA9}" uniqueName="9" name="MP" queryTableFieldId="9" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{83A8B7F4-5D38-4611-99AA-069D5C5E205F}" uniqueName="10" name="MPN" queryTableFieldId="10" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{7D3FF5FB-7C0B-47F3-8F0F-8972E8F1590A}" uniqueName="11" name="OC_FARNELL" queryTableFieldId="11" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{E15819F6-76BF-4B94-A7AD-9ACF33941781}" uniqueName="12" name="OC_NEWARK" queryTableFieldId="12" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{C86CECAC-77B9-4B37-94DE-5603B11E3F9C}" uniqueName="13" name="PACKAGE.1" queryTableFieldId="13" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{A7314788-729A-4F7C-94F1-696ACBE6D55B}" uniqueName="14" name="SUPPLIER" queryTableFieldId="14" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{24A642BE-9A77-44D9-8413-CBCF07A87954}" uniqueName="15" name="TP_SIGNAL_NAME" queryTableFieldId="15" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{1509B521-0D78-4316-852B-EAB8B6B17638}" uniqueName="16" name="VALUE.1" queryTableFieldId="16" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{44C59F59-8FB1-47D5-B4E7-724FB494D773}" uniqueName="17" name="Column1" queryTableFieldId="17" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1599,12 +1593,12 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B20C6A85-2B84-4E86-BC0F-356AB66372A9}" name="Qty"/>
-    <tableColumn id="2" xr3:uid="{06726855-2C16-458F-9E6D-9DFB00EFB535}" name="Value" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E0FAD16E-12AC-4752-BD56-DF97EB4882F4}" name="Package" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{935A2492-D977-44D4-9F8A-1D8A214EDE6F}" name="Parts" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6E29D7FF-02E1-4956-BCF4-9C4DB2952445}" name="Description" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{2E28C2BA-7E76-4947-8D49-1587730E2FE8}" name="MF" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{369BC5BE-8036-407B-9780-4E1A0D67A6BE}" name="MPN" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{06726855-2C16-458F-9E6D-9DFB00EFB535}" name="Value" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E0FAD16E-12AC-4752-BD56-DF97EB4882F4}" name="Package" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{935A2492-D977-44D4-9F8A-1D8A214EDE6F}" name="Parts" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6E29D7FF-02E1-4956-BCF4-9C4DB2952445}" name="Description" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2E28C2BA-7E76-4947-8D49-1587730E2FE8}" name="MF" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{369BC5BE-8036-407B-9780-4E1A0D67A6BE}" name="MPN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1912,19 +1906,18 @@
   </sheetPr>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G52:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
@@ -2004,7 +1997,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2031,7 +2024,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2087,7 +2080,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2114,7 +2107,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2141,7 +2134,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2226,7 +2219,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2253,7 +2246,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -2280,7 +2273,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -2307,7 +2300,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2392,7 +2385,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2419,7 +2412,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2446,7 +2439,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2502,7 +2495,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2529,7 +2522,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2699,7 +2692,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2726,7 +2719,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2811,7 +2804,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2838,7 +2831,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16</v>
       </c>
@@ -2894,7 +2887,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2921,7 +2914,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2948,7 +2941,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2975,7 +2968,7 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3002,7 +2995,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3029,7 +3022,7 @@
       </c>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3056,7 +3049,7 @@
       </c>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3083,7 +3076,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3110,7 +3103,7 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -3195,7 +3188,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3222,7 +3215,7 @@
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>7</v>
       </c>
@@ -3278,7 +3271,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3509,11 +3502,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;F</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="59" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
